--- a/data/trans_orig/IP16A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CBE8243-B1A0-48B6-9933-8DAC5DE25678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD49BFB1-D824-4ED1-9947-71346C1BC067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{450470DF-E709-49C0-AB98-2B99FC62868A}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A533DFE5-3E89-4539-9A9A-913A22707B99}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,114 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>92,15%</t>
   </si>
   <si>
@@ -101,9 +203,6 @@
     <t>94,54%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>7,85%</t>
   </si>
   <si>
@@ -131,64 +230,61 @@
     <t>16,5%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -215,9 +311,6 @@
     <t>90,15%</t>
   </si>
   <si>
-    <t>82,45%</t>
-  </si>
-  <si>
     <t>94,69%</t>
   </si>
   <si>
@@ -245,99 +338,6 @@
     <t>5,31%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
     <t>89,8%</t>
   </si>
   <si>
@@ -395,6 +395,96 @@
     <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
   </si>
   <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
     <t>70,92%</t>
   </si>
   <si>
@@ -443,58 +533,58 @@
     <t>24,73%</t>
   </si>
   <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
   </si>
   <si>
     <t>87,11%</t>
@@ -551,96 +641,6 @@
     <t>23,88%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
     <t>87,04%</t>
   </si>
   <si>
@@ -698,6 +698,87 @@
     <t>Menores según si ha consumido antibióticos en 2015 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
     <t>91,27%</t>
   </si>
   <si>
@@ -752,52 +833,58 @@
     <t>19,55%</t>
   </si>
   <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>90,9%</t>
@@ -848,93 +935,6 @@
     <t>18,98%</t>
   </si>
   <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
     <t>86,97%</t>
   </si>
   <si>
@@ -980,6 +980,60 @@
     <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
     <t>92,13%</t>
   </si>
   <si>
@@ -1028,46 +1082,58 @@
     <t>14,15%</t>
   </si>
   <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>97,69%</t>
@@ -1116,72 +1182,6 @@
   </si>
   <si>
     <t>9,45%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
   </si>
   <si>
     <t>94,56%</t>
@@ -1621,7 +1621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27568F06-DA2F-4D33-B466-8EDD52A4761E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D924CCED-B38D-409E-B7EA-6EC5F5B588C1}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1739,10 +1739,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>38063</v>
+        <v>3947</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1754,10 +1754,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>36528</v>
+        <v>8913</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1766,73 +1766,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>116</v>
-      </c>
       <c r="N4" s="7">
-        <v>74591</v>
+        <v>12860</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>840</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3243</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>781</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5119</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1621</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>13</v>
-      </c>
-      <c r="N5" s="7">
-        <v>8361</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,54 +1841,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1900,13 +1900,13 @@
         <v>21336</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -1915,13 +1915,13 @@
         <v>21846</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -1930,19 +1930,19 @@
         <v>43182</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -1951,13 +1951,13 @@
         <v>2551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1966,13 +1966,13 @@
         <v>1278</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -1981,13 +1981,13 @@
         <v>3829</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,13 +2002,13 @@
         <v>23887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -2017,13 +2017,13 @@
         <v>23124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -2032,117 +2032,117 @@
         <v>47011</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>57</v>
+      </c>
+      <c r="D10" s="7">
+        <v>38063</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="7">
+        <v>59</v>
+      </c>
+      <c r="I10" s="7">
+        <v>36528</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="7">
-        <v>34639</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>116</v>
+      </c>
+      <c r="N10" s="7">
+        <v>74591</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="H10" s="7">
-        <v>31</v>
-      </c>
-      <c r="I10" s="7">
-        <v>23504</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>81</v>
-      </c>
-      <c r="N10" s="7">
-        <v>58142</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>4178</v>
+        <v>3243</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="7">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5119</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="7">
+        <v>13</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8361</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2173</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>9</v>
-      </c>
-      <c r="N11" s="7">
-        <v>6352</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,153 +2151,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N12" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>3947</v>
+        <v>31253</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="7">
+        <v>39</v>
+      </c>
+      <c r="I13" s="7">
+        <v>23360</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="7">
+        <v>87</v>
+      </c>
+      <c r="N13" s="7">
+        <v>54612</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8913</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="7">
-        <v>16</v>
-      </c>
-      <c r="N13" s="7">
-        <v>12860</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>840</v>
+        <v>3870</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>781</v>
+        <v>1804</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>1621</v>
+        <v>5674</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,153 +2306,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>31253</v>
+        <v>34639</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="7">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7">
+        <v>23504</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="7">
         <v>81</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="7">
-        <v>39</v>
-      </c>
-      <c r="I16" s="7">
-        <v>23360</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="7">
-        <v>87</v>
-      </c>
       <c r="N16" s="7">
-        <v>54612</v>
+        <v>58142</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>3870</v>
+        <v>4178</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1804</v>
+        <v>2173</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>5674</v>
+        <v>6352</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,49 +2461,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,7 +2562,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>22</v>
@@ -2622,13 +2622,13 @@
         <v>143919</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>190</v>
@@ -2637,13 +2637,13 @@
         <v>125305</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>405</v>
@@ -2652,13 +2652,13 @@
         <v>269224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2679,7 +2679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60348DED-2EF8-4321-9394-79147021E44A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEEF9DC-0EDD-44CE-B7D2-2E8E1C1E13AF}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2797,100 +2797,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>33244</v>
+        <v>1915</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3266</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="7">
-        <v>54</v>
-      </c>
-      <c r="I4" s="7">
-        <v>35512</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5181</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M4" s="7">
-        <v>101</v>
-      </c>
-      <c r="N4" s="7">
-        <v>68755</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>737</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7">
-        <v>7076</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2968</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3704</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="7">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5992</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" s="7">
-        <v>18</v>
-      </c>
-      <c r="N5" s="7">
-        <v>13069</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,54 +2899,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>40320</v>
+        <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>41504</v>
+        <v>6234</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>81824</v>
+        <v>8885</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2958,13 +2958,13 @@
         <v>27493</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -2973,13 +2973,13 @@
         <v>21366</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -2988,19 +2988,19 @@
         <v>48860</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -3009,13 +3009,13 @@
         <v>4279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3024,13 +3024,13 @@
         <v>3846</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3039,13 +3039,13 @@
         <v>8125</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3060,13 @@
         <v>31772</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -3075,13 +3075,13 @@
         <v>25212</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -3090,117 +3090,117 @@
         <v>56985</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>41140</v>
+        <v>33244</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="7">
+        <v>54</v>
+      </c>
+      <c r="I10" s="7">
+        <v>35512</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>101</v>
+      </c>
+      <c r="N10" s="7">
+        <v>68755</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H10" s="7">
-        <v>45</v>
-      </c>
-      <c r="I10" s="7">
-        <v>33704</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M10" s="7">
-        <v>100</v>
-      </c>
-      <c r="N10" s="7">
-        <v>74844</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>6089</v>
+        <v>7076</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5992</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="7">
+        <v>18</v>
+      </c>
+      <c r="N11" s="7">
+        <v>13069</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8082</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M11" s="7">
-        <v>19</v>
-      </c>
-      <c r="N11" s="7">
-        <v>14171</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,144 +3209,144 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>56</v>
+      </c>
+      <c r="D12" s="7">
+        <v>40320</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>63</v>
       </c>
-      <c r="D12" s="7">
-        <v>47229</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>56</v>
-      </c>
       <c r="I12" s="7">
-        <v>41786</v>
+        <v>41504</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>119</v>
       </c>
       <c r="N12" s="7">
-        <v>89015</v>
+        <v>81824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>1915</v>
+        <v>33710</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="7">
+        <v>44</v>
+      </c>
+      <c r="I13" s="7">
+        <v>27477</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M13" s="7">
+        <v>96</v>
+      </c>
+      <c r="N13" s="7">
+        <v>61188</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3266</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="M13" s="7">
-        <v>6</v>
-      </c>
-      <c r="N13" s="7">
-        <v>5181</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>737</v>
+        <v>2284</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="7">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5487</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2968</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>3704</v>
+        <v>7770</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>179</v>
@@ -3364,63 +3364,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>2652</v>
+        <v>35994</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I15" s="7">
-        <v>6234</v>
+        <v>32964</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="N15" s="7">
-        <v>8885</v>
+        <v>68958</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>33710</v>
+        <v>41140</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>182</v>
@@ -3432,10 +3432,10 @@
         <v>184</v>
       </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I16" s="7">
-        <v>27477</v>
+        <v>33704</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>185</v>
@@ -3447,10 +3447,10 @@
         <v>187</v>
       </c>
       <c r="M16" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N16" s="7">
-        <v>61188</v>
+        <v>74844</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>188</v>
@@ -3465,13 +3465,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>2284</v>
+        <v>6089</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>191</v>
@@ -3483,10 +3483,10 @@
         <v>193</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>5487</v>
+        <v>8082</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>194</v>
@@ -3498,10 +3498,10 @@
         <v>196</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>7770</v>
+        <v>14171</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>197</v>
@@ -3519,49 +3519,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>63</v>
+      </c>
+      <c r="D18" s="7">
+        <v>47229</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>56</v>
       </c>
-      <c r="D18" s="7">
-        <v>35994</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>53</v>
-      </c>
       <c r="I18" s="7">
-        <v>32964</v>
+        <v>41786</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N18" s="7">
-        <v>68958</v>
+        <v>89015</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,7 +3620,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>28</v>
@@ -3680,13 +3680,13 @@
         <v>157966</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>213</v>
@@ -3695,13 +3695,13 @@
         <v>147701</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>435</v>
@@ -3710,13 +3710,13 @@
         <v>305667</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3737,7 +3737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5AB548-7209-436B-9A94-30D8E92143F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112C1882-25B8-4A7A-A2A9-D3F62B3CDE2C}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3855,10 +3855,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>37554</v>
+        <v>2534</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>219</v>
@@ -3867,88 +3867,88 @@
         <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6479</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="7">
-        <v>57</v>
-      </c>
-      <c r="I4" s="7">
-        <v>35620</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9013</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M4" s="7">
-        <v>113</v>
-      </c>
-      <c r="N4" s="7">
-        <v>73175</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>976</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3593</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>976</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7079</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M5" s="7">
-        <v>17</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10671</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,54 +3957,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>41147</v>
+        <v>3510</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>42699</v>
+        <v>6479</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>83846</v>
+        <v>9989</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4016,13 +4016,13 @@
         <v>17749</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4031,13 +4031,13 @@
         <v>17275</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -4046,19 +4046,19 @@
         <v>35023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -4067,13 +4067,13 @@
         <v>2918</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4082,13 +4082,13 @@
         <v>605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4097,13 +4097,13 @@
         <v>3524</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4118,13 @@
         <v>20667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -4133,13 +4133,13 @@
         <v>17880</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -4148,117 +4148,117 @@
         <v>38547</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7">
-        <v>27402</v>
+        <v>37554</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" s="7">
+        <v>57</v>
+      </c>
+      <c r="I10" s="7">
+        <v>35620</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M10" s="7">
+        <v>113</v>
+      </c>
+      <c r="N10" s="7">
+        <v>73175</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H10" s="7">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7">
-        <v>28579</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M10" s="7">
-        <v>76</v>
-      </c>
-      <c r="N10" s="7">
-        <v>55981</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>2744</v>
+        <v>3593</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" s="7">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7">
+        <v>7079</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M11" s="7">
+        <v>17</v>
+      </c>
+      <c r="N11" s="7">
+        <v>10671</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4209</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>6953</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,153 +4267,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7">
-        <v>30146</v>
+        <v>41147</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7">
-        <v>32788</v>
+        <v>42699</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="N12" s="7">
-        <v>62934</v>
+        <v>83846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>2534</v>
+        <v>21979</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="7">
+        <v>41</v>
+      </c>
+      <c r="I13" s="7">
+        <v>24612</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>75</v>
+      </c>
+      <c r="N13" s="7">
+        <v>46591</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6479</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>10</v>
-      </c>
-      <c r="N13" s="7">
-        <v>9013</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>976</v>
+        <v>5827</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>275</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>3003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>976</v>
+        <v>8830</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,144 +4422,144 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>3510</v>
+        <v>27806</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>6479</v>
+        <v>27615</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>9989</v>
+        <v>55421</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>21979</v>
+        <v>27402</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>24612</v>
+        <v>28579</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N16" s="7">
-        <v>46591</v>
+        <v>55981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>5827</v>
+        <v>2744</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>3003</v>
+        <v>4209</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>180</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>294</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>8830</v>
+        <v>6953</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>295</v>
@@ -4577,49 +4577,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7">
+        <v>30146</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>44</v>
       </c>
-      <c r="D18" s="7">
-        <v>27806</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>46</v>
-      </c>
       <c r="I18" s="7">
-        <v>27615</v>
+        <v>32788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N18" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,7 +4642,7 @@
         <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="H19" s="7">
         <v>168</v>
@@ -4657,7 +4657,7 @@
         <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>323</v>
@@ -4678,7 +4678,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>24</v>
@@ -4690,7 +4690,7 @@
         <v>305</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>306</v>
@@ -4705,7 +4705,7 @@
         <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>308</v>
@@ -4738,13 +4738,13 @@
         <v>123276</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>192</v>
@@ -4753,13 +4753,13 @@
         <v>127461</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>371</v>
@@ -4768,13 +4768,13 @@
         <v>250737</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4795,7 +4795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95D4CC2-2AC9-435D-A46C-C48C003C643A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0790290A-B3E0-4F70-B374-3B8FF1137100}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4913,100 +4913,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>56056</v>
+        <v>4167</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6212</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="7">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>10378</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H4" s="7">
-        <v>55</v>
-      </c>
-      <c r="I4" s="7">
-        <v>36736</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M4" s="7">
-        <v>140</v>
-      </c>
-      <c r="N4" s="7">
-        <v>92792</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4789</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>3437</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,54 +5015,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>60845</v>
+        <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>40173</v>
+        <v>6212</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>101018</v>
+        <v>10378</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5074,13 +5074,13 @@
         <v>20990</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -5089,13 +5089,13 @@
         <v>17436</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -5104,19 +5104,19 @@
         <v>38426</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -5125,13 +5125,13 @@
         <v>614</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5140,13 +5140,13 @@
         <v>1887</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -5155,13 +5155,13 @@
         <v>2501</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5176,13 @@
         <v>21604</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -5191,13 +5191,13 @@
         <v>19323</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -5206,117 +5206,117 @@
         <v>40927</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D10" s="7">
-        <v>31677</v>
+        <v>56056</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>29089</v>
+        <v>36736</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="N10" s="7">
-        <v>60767</v>
+        <v>92792</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>750</v>
+        <v>4789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>1720</v>
+        <v>3437</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>2470</v>
+        <v>8226</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,153 +5325,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>32427</v>
+        <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>30809</v>
+        <v>40173</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="N12" s="7">
-        <v>63237</v>
+        <v>101018</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>4167</v>
+        <v>50259</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>349</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="I13" s="7">
-        <v>6212</v>
+        <v>51441</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>352</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="N13" s="7">
-        <v>10378</v>
+        <v>101699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>353</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>3235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>6454</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>361</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>9689</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,129 +5480,129 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7">
-        <v>4167</v>
+        <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>6212</v>
+        <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10378</v>
+        <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7">
-        <v>50259</v>
+        <v>31677</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>365</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7">
-        <v>51441</v>
+        <v>29089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="N16" s="7">
-        <v>101699</v>
+        <v>60767</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>750</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7">
-        <v>3235</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>374</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>6454</v>
+        <v>1720</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>375</v>
@@ -5614,10 +5614,10 @@
         <v>377</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>9689</v>
+        <v>2470</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>378</v>
@@ -5635,49 +5635,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>53494</v>
+        <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>57895</v>
+        <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>111388</v>
+        <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,7 +5700,7 @@
         <v>382</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>205</v>
@@ -5736,7 +5736,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>13</v>
@@ -5748,7 +5748,7 @@
         <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>390</v>
@@ -5796,13 +5796,13 @@
         <v>172537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>226</v>
@@ -5811,13 +5811,13 @@
         <v>154412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -5826,13 +5826,13 @@
         <v>326948</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD49BFB1-D824-4ED1-9947-71346C1BC067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94795C14-349B-4D7C-83C4-506B389B4393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A533DFE5-3E89-4539-9A9A-913A22707B99}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AD89A1E-5D62-42D4-BAE4-D49D1EDD2341}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
   <si>
     <t>Menores según si ha consumido antibióticos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -71,6 +71,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,37 +110,13 @@
     <t>91,94%</t>
   </si>
   <si>
-    <t>63,99%</t>
+    <t>58,97%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
+    <t>65,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -125,127 +125,154 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>84,34%</t>
+    <t>81,46%</t>
   </si>
   <si>
     <t>91,85%</t>
   </si>
   <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>87,71%</t>
   </si>
   <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
     <t>88,98%</t>
   </si>
   <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>81,19%</t>
+    <t>82,07%</t>
   </si>
   <si>
     <t>97,96%</t>
@@ -254,55 +281,55 @@
     <t>90,59%</t>
   </si>
   <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>77,9%</t>
+    <t>77,16%</t>
   </si>
   <si>
     <t>97,23%</t>
@@ -311,925 +338,895 @@
     <t>90,15%</t>
   </si>
   <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>89,8%</t>
   </si>
   <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>91,1%</t>
   </si>
   <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
   </si>
   <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
     <t>72,2%</t>
   </si>
   <si>
     <t>52,4%</t>
   </si>
   <si>
-    <t>86,43%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>58,31%</t>
   </si>
   <si>
-    <t>26,16%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
   </si>
   <si>
     <t>89,75%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2015 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
   <si>
     <t>75,27%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>90,9%</t>
   </si>
   <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>87,16%</t>
   </si>
   <si>
-    <t>73,69%</t>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>81,23%</t>
+    <t>91,34%</t>
   </si>
   <si>
     <t>88,31%</t>
   </si>
   <si>
-    <t>83,41%</t>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>87,66%</t>
   </si>
   <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
     <t>84,31%</t>
   </si>
   <si>
     <t>90,01%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
   </si>
   <si>
     <t>97,16%</t>
   </si>
   <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>91,44%</t>
   </si>
   <si>
-    <t>96,49%</t>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>96,09%</t>
   </si>
   <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1237,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1336,39 +1333,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1420,7 +1417,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1531,13 +1528,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1546,6 +1536,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1610,19 +1607,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D924CCED-B38D-409E-B7EA-6EC5F5B588C1}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD1C19F-3802-442E-8811-CAED342FD028}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1739,10 +1756,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>3947</v>
+        <v>840</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1754,34 +1771,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>8913</v>
+        <v>781</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>12860</v>
+        <v>1621</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,10 +1807,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>840</v>
+        <v>3947</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1805,34 +1822,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>781</v>
+        <v>8913</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>1621</v>
+        <v>12860</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,10 +1911,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>21336</v>
+        <v>2551</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
@@ -1909,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>21846</v>
+        <v>1278</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>43182</v>
+        <v>3829</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1945,10 +1962,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>2551</v>
+        <v>21336</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1960,25 +1977,25 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I8" s="7">
-        <v>1278</v>
+        <v>21846</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="N8" s="7">
-        <v>3829</v>
+        <v>43182</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>41</v>
@@ -2049,10 +2066,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>38063</v>
+        <v>3243</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>45</v>
@@ -2064,10 +2081,10 @@
         <v>47</v>
       </c>
       <c r="H10" s="7">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>36528</v>
+        <v>5119</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>48</v>
@@ -2079,10 +2096,10 @@
         <v>50</v>
       </c>
       <c r="M10" s="7">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>74591</v>
+        <v>8361</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>51</v>
@@ -2100,10 +2117,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
-        <v>3243</v>
+        <v>38063</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>54</v>
@@ -2115,10 +2132,10 @@
         <v>56</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="I11" s="7">
-        <v>5119</v>
+        <v>36528</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>57</v>
@@ -2130,10 +2147,10 @@
         <v>59</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="N11" s="7">
-        <v>8361</v>
+        <v>74591</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>60</v>
@@ -2204,10 +2221,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>31253</v>
+        <v>3870</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>64</v>
@@ -2219,10 +2236,10 @@
         <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>23360</v>
+        <v>1804</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>67</v>
@@ -2234,10 +2251,10 @@
         <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>54612</v>
+        <v>5674</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>70</v>
@@ -2255,10 +2272,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>3870</v>
+        <v>31253</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -2270,10 +2287,10 @@
         <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7">
-        <v>1804</v>
+        <v>23360</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>76</v>
@@ -2285,10 +2302,10 @@
         <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="N14" s="7">
-        <v>5674</v>
+        <v>54612</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>79</v>
@@ -2359,10 +2376,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>34639</v>
+        <v>4178</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>83</v>
@@ -2374,10 +2391,10 @@
         <v>85</v>
       </c>
       <c r="H16" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>23504</v>
+        <v>2173</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>86</v>
@@ -2389,19 +2406,19 @@
         <v>88</v>
       </c>
       <c r="M16" s="7">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>58142</v>
+        <v>6352</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,49 +2427,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7">
-        <v>4178</v>
+        <v>34639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>2173</v>
+        <v>23504</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="N17" s="7">
-        <v>6352</v>
+        <v>58142</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,49 +2531,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>193</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>129237</v>
+        <v>14682</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>114150</v>
+        <v>11155</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
-        <v>366</v>
+        <v>39</v>
       </c>
       <c r="N19" s="7">
-        <v>243387</v>
+        <v>25837</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,49 +2582,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="D20" s="7">
-        <v>14682</v>
+        <v>129237</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="I20" s="7">
-        <v>11155</v>
+        <v>114150</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
-        <v>39</v>
+        <v>366</v>
       </c>
       <c r="N20" s="7">
-        <v>25837</v>
+        <v>243387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,6 +2676,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2679,8 +2701,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEEF9DC-0EDD-44CE-B7D2-2E8E1C1E13AF}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF47C78-FA0A-4B39-94AB-F08BD93BA2F9}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2696,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2797,49 +2819,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1915</v>
+        <v>737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2968</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7">
         <v>4</v>
       </c>
-      <c r="I4" s="7">
-        <v>3266</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="7">
-        <v>6</v>
-      </c>
       <c r="N4" s="7">
-        <v>5181</v>
+        <v>3704</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,49 +2870,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>737</v>
+        <v>1915</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>2968</v>
+        <v>3266</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>3704</v>
+        <v>5181</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,49 +2974,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>27493</v>
+        <v>4279</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>21366</v>
+        <v>3846</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M7" s="7">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>48860</v>
+        <v>8125</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,49 +3025,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7">
-        <v>4279</v>
+        <v>27493</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>3846</v>
+        <v>21366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="N8" s="7">
-        <v>8125</v>
+        <v>48860</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,49 +3129,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>33244</v>
+        <v>7076</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>35512</v>
+        <v>5992</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>68755</v>
+        <v>13069</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,49 +3180,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>7076</v>
+        <v>33244</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7">
-        <v>5992</v>
+        <v>35512</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="N11" s="7">
-        <v>13069</v>
+        <v>68755</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,46 +3284,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>33710</v>
+        <v>2284</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>27477</v>
+        <v>5487</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>61188</v>
+        <v>7770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>172</v>
@@ -3313,10 +3335,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7">
-        <v>2284</v>
+        <v>33710</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>173</v>
@@ -3328,10 +3350,10 @@
         <v>175</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I14" s="7">
-        <v>5487</v>
+        <v>27477</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>176</v>
@@ -3343,10 +3365,10 @@
         <v>178</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>7770</v>
+        <v>61188</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>179</v>
@@ -3355,7 +3377,7 @@
         <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,49 +3439,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>41140</v>
+        <v>6089</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="7">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7">
+        <v>8082</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H16" s="7">
-        <v>45</v>
-      </c>
-      <c r="I16" s="7">
-        <v>33704</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>19</v>
+      </c>
+      <c r="N16" s="7">
+        <v>14171</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="M16" s="7">
-        <v>100</v>
-      </c>
-      <c r="N16" s="7">
-        <v>74844</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,49 +3490,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7">
-        <v>6089</v>
+        <v>41140</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="7">
+        <v>45</v>
+      </c>
+      <c r="I17" s="7">
+        <v>33704</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H17" s="7">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7">
-        <v>8082</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>100</v>
+      </c>
+      <c r="N17" s="7">
+        <v>74844</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="M17" s="7">
-        <v>19</v>
-      </c>
-      <c r="N17" s="7">
-        <v>14171</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,49 +3594,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>137501</v>
+        <v>20465</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" s="7">
+        <v>37</v>
+      </c>
+      <c r="I19" s="7">
+        <v>26375</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H19" s="7">
-        <v>176</v>
-      </c>
-      <c r="I19" s="7">
-        <v>121326</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>65</v>
+      </c>
+      <c r="N19" s="7">
+        <v>46840</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="M19" s="7">
-        <v>370</v>
-      </c>
-      <c r="N19" s="7">
-        <v>258827</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,49 +3645,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="D20" s="7">
-        <v>20465</v>
+        <v>137501</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" s="7">
+        <v>176</v>
+      </c>
+      <c r="I20" s="7">
+        <v>121326</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H20" s="7">
-        <v>37</v>
-      </c>
-      <c r="I20" s="7">
-        <v>26375</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>370</v>
+      </c>
+      <c r="N20" s="7">
+        <v>258827</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="M20" s="7">
-        <v>65</v>
-      </c>
-      <c r="N20" s="7">
-        <v>46840</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,6 +3739,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3737,8 +3764,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112C1882-25B8-4A7A-A2A9-D3F62B3CDE2C}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0E70B5-D51C-4B3D-B458-FF1E4A3BF5DD}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3754,7 +3781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3855,49 +3882,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2534</v>
+        <v>976</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>976</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>7</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6479</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="7">
-        <v>10</v>
-      </c>
-      <c r="N4" s="7">
-        <v>9013</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,49 +3933,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>976</v>
+        <v>2534</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6479</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" s="7">
+        <v>9013</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>976</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,49 +4037,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>17749</v>
+        <v>2918</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>605</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>5</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3524</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H7" s="7">
-        <v>25</v>
-      </c>
-      <c r="I7" s="7">
-        <v>17275</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>49</v>
-      </c>
-      <c r="N7" s="7">
-        <v>35023</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,49 +4088,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>2918</v>
+        <v>17749</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" s="7">
+        <v>25</v>
+      </c>
+      <c r="I8" s="7">
+        <v>17275</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
+        <v>49</v>
+      </c>
+      <c r="N8" s="7">
+        <v>35023</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>605</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3524</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,49 +4192,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>37554</v>
+        <v>3593</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="7">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7079</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H10" s="7">
-        <v>57</v>
-      </c>
-      <c r="I10" s="7">
-        <v>35620</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>17</v>
+      </c>
+      <c r="N10" s="7">
+        <v>10671</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="M10" s="7">
-        <v>113</v>
-      </c>
-      <c r="N10" s="7">
-        <v>73175</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,49 +4243,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>3593</v>
+        <v>37554</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H11" s="7">
+        <v>57</v>
+      </c>
+      <c r="I11" s="7">
+        <v>35620</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7079</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>113</v>
+      </c>
+      <c r="N11" s="7">
+        <v>73175</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="M11" s="7">
-        <v>17</v>
-      </c>
-      <c r="N11" s="7">
-        <v>10671</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,49 +4347,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>21979</v>
+        <v>5827</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3003</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H13" s="7">
-        <v>41</v>
-      </c>
-      <c r="I13" s="7">
-        <v>24612</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7">
+        <v>8830</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="M13" s="7">
-        <v>75</v>
-      </c>
-      <c r="N13" s="7">
-        <v>46591</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,49 +4398,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>5827</v>
+        <v>21979</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="7">
+        <v>41</v>
+      </c>
+      <c r="I14" s="7">
+        <v>24612</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3003</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>75</v>
+      </c>
+      <c r="N14" s="7">
+        <v>46591</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="M14" s="7">
-        <v>15</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8830</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,49 +4502,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>27402</v>
+        <v>2744</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4209</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H16" s="7">
-        <v>38</v>
-      </c>
-      <c r="I16" s="7">
-        <v>28579</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6953</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M16" s="7">
-        <v>76</v>
-      </c>
-      <c r="N16" s="7">
-        <v>55981</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,49 +4553,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>2744</v>
+        <v>27402</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>38</v>
+      </c>
+      <c r="I17" s="7">
+        <v>28579</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4209</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>76</v>
+      </c>
+      <c r="N17" s="7">
+        <v>55981</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="M17" s="7">
-        <v>10</v>
-      </c>
-      <c r="N17" s="7">
-        <v>6953</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,40 +4657,40 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>107218</v>
+        <v>16058</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="7">
+        <v>24</v>
+      </c>
+      <c r="I19" s="7">
+        <v>14895</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H19" s="7">
-        <v>168</v>
-      </c>
-      <c r="I19" s="7">
-        <v>112566</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="M19" s="7">
-        <v>323</v>
+        <v>48</v>
       </c>
       <c r="N19" s="7">
-        <v>219784</v>
+        <v>30953</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>302</v>
@@ -4681,49 +4708,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="D20" s="7">
-        <v>16058</v>
+        <v>107218</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>305</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>306</v>
       </c>
       <c r="H20" s="7">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="I20" s="7">
-        <v>14895</v>
+        <v>112566</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
-        <v>48</v>
+        <v>323</v>
       </c>
       <c r="N20" s="7">
-        <v>30953</v>
+        <v>219784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,6 +4802,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4795,8 +4827,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0790290A-B3E0-4F70-B374-3B8FF1137100}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2055B180-C2EF-464A-9F9B-3BBDDA6832C8}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4812,7 +4844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4913,49 +4945,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4167</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6212</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>26</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>10378</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,49 +4996,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4167</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>6212</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>315</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>10378</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,49 +5100,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>20990</v>
+        <v>614</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>17436</v>
+        <v>1887</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M7" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>38426</v>
+        <v>2501</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,49 +5151,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>614</v>
+        <v>20990</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>325</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7">
-        <v>1887</v>
+        <v>17436</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="N8" s="7">
-        <v>2501</v>
+        <v>38426</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5255,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>56056</v>
+        <v>4789</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>332</v>
@@ -5238,34 +5270,34 @@
         <v>333</v>
       </c>
       <c r="H10" s="7">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>36736</v>
+        <v>3437</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>92792</v>
+        <v>8226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5306,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D11" s="7">
-        <v>4789</v>
+        <v>56056</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>340</v>
@@ -5289,10 +5321,10 @@
         <v>341</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="I11" s="7">
-        <v>3437</v>
+        <v>36736</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>342</v>
@@ -5301,22 +5333,22 @@
         <v>343</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="N11" s="7">
-        <v>8226</v>
+        <v>92792</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,49 +5410,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>50259</v>
+        <v>3235</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>51441</v>
+        <v>6454</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>101699</v>
+        <v>9689</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,49 +5461,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="D14" s="7">
-        <v>3235</v>
+        <v>50259</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="I14" s="7">
-        <v>6454</v>
+        <v>51441</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="N14" s="7">
-        <v>9689</v>
+        <v>101699</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,28 +5565,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>31677</v>
+        <v>750</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>366</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>29089</v>
+        <v>1720</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>368</v>
@@ -5563,10 +5595,10 @@
         <v>369</v>
       </c>
       <c r="M16" s="7">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>60767</v>
+        <v>2470</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>370</v>
@@ -5584,49 +5616,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D17" s="7">
-        <v>750</v>
+        <v>31677</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>374</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I17" s="7">
-        <v>1720</v>
+        <v>29089</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>89</v>
+      </c>
+      <c r="N17" s="7">
+        <v>60767</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2470</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,49 +5720,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>163149</v>
+        <v>9388</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>21</v>
+      </c>
+      <c r="I19" s="7">
+        <v>13498</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="7">
-        <v>205</v>
-      </c>
-      <c r="I19" s="7">
-        <v>140914</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>34</v>
+      </c>
+      <c r="N19" s="7">
+        <v>22886</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="M19" s="7">
-        <v>442</v>
-      </c>
-      <c r="N19" s="7">
-        <v>304062</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,49 +5771,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="D20" s="7">
-        <v>9388</v>
+        <v>163149</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>205</v>
+      </c>
+      <c r="I20" s="7">
+        <v>140914</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="H20" s="7">
-        <v>21</v>
-      </c>
-      <c r="I20" s="7">
-        <v>13498</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>442</v>
+      </c>
+      <c r="N20" s="7">
+        <v>304062</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="M20" s="7">
-        <v>34</v>
-      </c>
-      <c r="N20" s="7">
-        <v>22886</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,6 +5865,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A05-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94795C14-349B-4D7C-83C4-506B389B4393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F594913E-A608-4456-97C9-BE742EB3FC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AD89A1E-5D62-42D4-BAE4-D49D1EDD2341}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{991A9EE5-828A-4D4E-ABF0-8D3CF0EF150A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="402">
   <si>
     <t>Menores según si ha consumido antibióticos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>67,17%</t>
+    <t>66,75%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>41,03%</t>
+    <t>41,7%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>34,38%</t>
+    <t>33,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>82,45%</t>
   </si>
   <si>
-    <t>32,83%</t>
+    <t>33,25%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,1123 +110,1141 @@
     <t>91,94%</t>
   </si>
   <si>
-    <t>58,97%</t>
+    <t>58,3%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>65,62%</t>
+    <t>66,1%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>18,54%</t>
+    <t>17,21%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>3,38%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
   </si>
   <si>
     <t>84,03%</t>
   </si>
   <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>94,42%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD1C19F-3802-442E-8811-CAED342FD028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6C850A-97E7-4BF1-AD96-216C8324F335}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2701,7 +2719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF47C78-FA0A-4B39-94AB-F08BD93BA2F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55254619-F75E-42E6-AAB4-AA7017DA209C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2998,10 +3016,10 @@
         <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3010,13 +3028,13 @@
         <v>8125</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3049,13 @@
         <v>27493</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -3046,13 +3064,13 @@
         <v>21366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -3061,13 +3079,13 @@
         <v>48860</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3150,13 +3168,13 @@
         <v>5992</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -3165,13 +3183,13 @@
         <v>13069</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,10 +3207,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
         <v>54</v>
@@ -3201,13 +3219,13 @@
         <v>35512</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -3216,13 +3234,13 @@
         <v>68755</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3308,13 @@
         <v>2284</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3305,13 +3323,13 @@
         <v>5487</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3320,13 +3338,13 @@
         <v>7770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3359,13 @@
         <v>33710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -3356,13 +3374,13 @@
         <v>27477</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -3371,13 +3389,13 @@
         <v>61188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3463,13 @@
         <v>6089</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3460,13 +3478,13 @@
         <v>8082</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3475,13 +3493,13 @@
         <v>14171</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3514,13 @@
         <v>41140</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -3511,13 +3529,13 @@
         <v>33704</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -3526,13 +3544,13 @@
         <v>74844</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3618,13 @@
         <v>20465</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -3615,13 +3633,13 @@
         <v>26375</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -3630,13 +3648,13 @@
         <v>46840</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3669,13 @@
         <v>137501</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>176</v>
@@ -3666,13 +3684,13 @@
         <v>121326</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>370</v>
@@ -3681,13 +3699,13 @@
         <v>258827</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,7 +3782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0E70B5-D51C-4B3D-B458-FF1E4A3BF5DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF49EF88-6FDC-4DA1-B86F-5ED60C065EBE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3781,7 +3799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3888,13 +3906,13 @@
         <v>976</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3906,10 +3924,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3918,13 +3936,13 @@
         <v>976</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,10 +3957,10 @@
         <v>2534</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3957,7 +3975,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3969,10 +3987,10 @@
         <v>9013</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4043,13 +4061,13 @@
         <v>2918</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4058,13 +4076,13 @@
         <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4073,13 +4091,13 @@
         <v>3524</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4112,13 @@
         <v>17749</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -4109,10 +4127,10 @@
         <v>17275</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4124,13 +4142,13 @@
         <v>35023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,7 +4687,7 @@
         <v>298</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4678,13 +4696,13 @@
         <v>14895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -4693,13 +4711,13 @@
         <v>30953</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4732,13 @@
         <v>107218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>168</v>
@@ -4729,13 +4747,13 @@
         <v>112566</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>323</v>
@@ -4744,13 +4762,13 @@
         <v>219784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,7 +4845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2055B180-C2EF-464A-9F9B-3BBDDA6832C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127F93B4-8009-493E-9536-485386093D61}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4844,7 +4862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4954,10 +4972,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4969,10 +4987,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4984,10 +5002,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,7 +5023,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -5020,7 +5038,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5035,7 +5053,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -5106,13 +5124,13 @@
         <v>614</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5121,13 +5139,13 @@
         <v>1887</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5136,13 +5154,13 @@
         <v>2501</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,10 +5175,10 @@
         <v>20990</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -5172,13 +5190,13 @@
         <v>17436</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -5187,13 +5205,13 @@
         <v>38426</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5279,13 @@
         <v>4789</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5276,13 +5294,13 @@
         <v>3437</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5291,13 +5309,13 @@
         <v>8226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5330,13 @@
         <v>56056</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -5327,13 +5345,13 @@
         <v>36736</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>140</v>
@@ -5342,13 +5360,13 @@
         <v>92792</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5434,13 @@
         <v>3235</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5431,13 +5449,13 @@
         <v>6454</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5446,13 +5464,13 @@
         <v>9689</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5485,13 @@
         <v>50259</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -5482,13 +5500,13 @@
         <v>51441</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>134</v>
@@ -5497,13 +5515,13 @@
         <v>101699</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5589,13 @@
         <v>750</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5586,13 +5604,13 @@
         <v>1720</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>52</v>
+        <v>370</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5601,13 +5619,13 @@
         <v>2470</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,10 +5640,10 @@
         <v>31677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -5637,13 +5655,13 @@
         <v>29089</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -5652,13 +5670,13 @@
         <v>60767</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5744,13 @@
         <v>9388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -5741,13 +5759,13 @@
         <v>13498</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -5756,13 +5774,13 @@
         <v>22886</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5795,13 @@
         <v>163149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -5792,13 +5810,13 @@
         <v>140914</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M20" s="7">
         <v>442</v>
@@ -5807,13 +5825,13 @@
         <v>304062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F594913E-A608-4456-97C9-BE742EB3FC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1A91AE7-46BE-47DB-9E63-736583C100F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{991A9EE5-828A-4D4E-ABF0-8D3CF0EF150A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0F395485-6E7F-4B9D-B4A8-C4F98D905F01}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="362">
   <si>
     <t>Menores según si ha consumido antibióticos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1183 +68,1063 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
     <t>17,55%</t>
   </si>
   <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>94,62%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
 </sst>
 </file>
@@ -1656,8 +1536,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6C850A-97E7-4BF1-AD96-216C8324F335}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1518DE51-202A-41C7-BCA0-780D25BA2685}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1774,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>840</v>
+        <v>2060</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1789,85 +1669,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>781</v>
+        <v>3391</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>1621</v>
+        <v>5451</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>3947</v>
+        <v>30758</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>8913</v>
+        <v>25283</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="N5" s="7">
-        <v>12860</v>
+        <v>56041</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,153 +1756,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>2551</v>
+        <v>5119</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>1278</v>
+        <v>3243</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>3829</v>
+        <v>8361</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7">
-        <v>21336</v>
+        <v>36528</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I8" s="7">
-        <v>21846</v>
+        <v>38063</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="N8" s="7">
-        <v>43182</v>
+        <v>74591</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,153 +1911,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3243</v>
+        <v>1804</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>5119</v>
+        <v>3870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>8361</v>
+        <v>5674</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>38063</v>
+        <v>23360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7">
-        <v>36528</v>
+        <v>31253</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="N11" s="7">
-        <v>74591</v>
+        <v>54612</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,153 +2066,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2173</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
-        <v>3870</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
       <c r="I13" s="7">
-        <v>1804</v>
+        <v>4178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>5674</v>
+        <v>6352</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>31253</v>
+        <v>23504</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I14" s="7">
-        <v>23360</v>
+        <v>34639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N14" s="7">
-        <v>54612</v>
+        <v>58142</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,153 +2221,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>4178</v>
+        <v>11155</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>2173</v>
+        <v>14682</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="N16" s="7">
-        <v>6352</v>
+        <v>25837</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="D17" s="7">
-        <v>34639</v>
+        <v>114150</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="I17" s="7">
-        <v>23504</v>
+        <v>129237</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="N17" s="7">
-        <v>58142</v>
+        <v>243387</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,217 +2376,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
-        <v>14682</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7">
-        <v>11155</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="7">
-        <v>39</v>
-      </c>
-      <c r="N19" s="7">
-        <v>25837</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>193</v>
-      </c>
-      <c r="D20" s="7">
-        <v>129237</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>173</v>
-      </c>
-      <c r="I20" s="7">
-        <v>114150</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>366</v>
-      </c>
-      <c r="N20" s="7">
-        <v>243387</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>405</v>
-      </c>
-      <c r="N21" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2719,8 +2443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55254619-F75E-42E6-AAB4-AA7017DA209C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E642250-E668-4C81-8D1C-F913566C88A9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2736,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2837,100 +2561,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>737</v>
+        <v>6814</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>2968</v>
+        <v>5016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>3704</v>
+        <v>11830</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>1915</v>
+        <v>24632</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="I5" s="7">
-        <v>3266</v>
+        <v>29408</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="N5" s="7">
-        <v>5181</v>
+        <v>54040</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,153 +2663,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>2652</v>
+        <v>31446</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I6" s="7">
-        <v>6234</v>
+        <v>34424</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="N6" s="7">
-        <v>8885</v>
+        <v>65870</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>4279</v>
+        <v>5992</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>3846</v>
+        <v>7076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>8125</v>
+        <v>13069</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7">
-        <v>27493</v>
+        <v>35512</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I8" s="7">
-        <v>21366</v>
+        <v>33244</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="N8" s="7">
-        <v>48860</v>
+        <v>68755</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,54 +2818,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>31772</v>
+        <v>41504</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>25212</v>
+        <v>40320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="N9" s="7">
-        <v>56985</v>
+        <v>81824</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3150,97 +2874,97 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>7076</v>
+        <v>5487</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>5992</v>
+        <v>2284</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>13069</v>
+        <v>7770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>33244</v>
+        <v>27477</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>35512</v>
+        <v>33710</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>68755</v>
+        <v>61188</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,153 +2973,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>32964</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>40320</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>63</v>
-      </c>
       <c r="I12" s="7">
-        <v>41504</v>
+        <v>35994</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>81824</v>
+        <v>68958</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>2284</v>
+        <v>8082</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>5487</v>
+        <v>6089</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>7770</v>
+        <v>14171</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>33710</v>
+        <v>33704</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>27477</v>
+        <v>41140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N14" s="7">
-        <v>61188</v>
+        <v>74844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,150 +3131,150 @@
         <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>35994</v>
+        <v>41786</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I15" s="7">
-        <v>32964</v>
+        <v>47229</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N15" s="7">
-        <v>68958</v>
+        <v>89015</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>6089</v>
+        <v>26375</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I16" s="7">
-        <v>8082</v>
+        <v>20465</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="N16" s="7">
-        <v>14171</v>
+        <v>46840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D17" s="7">
-        <v>41140</v>
+        <v>121326</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="7">
         <v>194</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H17" s="7">
-        <v>45</v>
-      </c>
       <c r="I17" s="7">
-        <v>33704</v>
+        <v>137501</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="N17" s="7">
-        <v>74844</v>
+        <v>258827</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,217 +3283,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="D18" s="7">
-        <v>47229</v>
+        <v>147701</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="I18" s="7">
-        <v>41786</v>
+        <v>157966</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>119</v>
+        <v>435</v>
       </c>
       <c r="N18" s="7">
-        <v>89015</v>
+        <v>305667</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>28</v>
-      </c>
-      <c r="D19" s="7">
-        <v>20465</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H19" s="7">
-        <v>37</v>
-      </c>
-      <c r="I19" s="7">
-        <v>26375</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M19" s="7">
-        <v>65</v>
-      </c>
-      <c r="N19" s="7">
-        <v>46840</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>194</v>
-      </c>
-      <c r="D20" s="7">
-        <v>137501</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>176</v>
-      </c>
-      <c r="I20" s="7">
-        <v>121326</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M20" s="7">
-        <v>370</v>
-      </c>
-      <c r="N20" s="7">
-        <v>258827</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>222</v>
-      </c>
-      <c r="D21" s="7">
-        <v>157966</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>213</v>
-      </c>
-      <c r="I21" s="7">
-        <v>147701</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>435</v>
-      </c>
-      <c r="N21" s="7">
-        <v>305667</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3782,8 +3350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF49EF88-6FDC-4DA1-B86F-5ED60C065EBE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAD2523-EF37-4C04-B122-E5E6EB61F7FD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3799,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3903,97 +3471,97 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>976</v>
+        <v>605</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3894</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>976</v>
+        <v>4500</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>2534</v>
+        <v>23754</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>6479</v>
+        <v>20282</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="N5" s="7">
-        <v>9013</v>
+        <v>44036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,153 +3570,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>3510</v>
+        <v>24359</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>6479</v>
+        <v>24176</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N6" s="7">
-        <v>9989</v>
+        <v>48536</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>2918</v>
+        <v>7079</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>605</v>
+        <v>3593</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>3524</v>
+        <v>10671</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7">
-        <v>17749</v>
+        <v>35620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I8" s="7">
-        <v>17275</v>
+        <v>37554</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="N8" s="7">
-        <v>35023</v>
+        <v>73175</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,54 +3725,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7">
-        <v>20667</v>
+        <v>42699</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I9" s="7">
-        <v>17880</v>
+        <v>41147</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="N9" s="7">
-        <v>38547</v>
+        <v>83846</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4213,97 +3781,97 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>3593</v>
+        <v>3003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>7079</v>
+        <v>5827</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>10671</v>
+        <v>8830</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7">
-        <v>37554</v>
+        <v>24612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>35620</v>
+        <v>21979</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="N11" s="7">
-        <v>73175</v>
+        <v>46591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,153 +3880,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>41147</v>
+        <v>27615</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>42699</v>
+        <v>27806</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N12" s="7">
-        <v>83846</v>
+        <v>55421</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4209</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2744</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
-        <v>5827</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3003</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M13" s="7">
-        <v>15</v>
-      </c>
       <c r="N13" s="7">
-        <v>8830</v>
+        <v>6953</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>21979</v>
+        <v>28579</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7">
-        <v>24612</v>
+        <v>27402</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N14" s="7">
-        <v>46591</v>
+        <v>55981</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,150 +4038,150 @@
         <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>27806</v>
+        <v>32788</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>27615</v>
+        <v>30146</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N15" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>2744</v>
+        <v>14895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>4209</v>
+        <v>16058</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="N16" s="7">
-        <v>6953</v>
+        <v>30953</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="D17" s="7">
-        <v>27402</v>
+        <v>112566</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="I17" s="7">
-        <v>28579</v>
+        <v>107218</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="N17" s="7">
-        <v>55981</v>
+        <v>219784</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,217 +4190,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D18" s="7">
-        <v>30146</v>
+        <v>127461</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="I18" s="7">
-        <v>32788</v>
+        <v>123276</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="N18" s="7">
-        <v>62934</v>
+        <v>250737</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>24</v>
-      </c>
-      <c r="D19" s="7">
-        <v>16058</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H19" s="7">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
-        <v>14895</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="M19" s="7">
-        <v>48</v>
-      </c>
-      <c r="N19" s="7">
-        <v>30953</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>155</v>
-      </c>
-      <c r="D20" s="7">
-        <v>107218</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H20" s="7">
-        <v>168</v>
-      </c>
-      <c r="I20" s="7">
-        <v>112566</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M20" s="7">
-        <v>323</v>
-      </c>
-      <c r="N20" s="7">
-        <v>219784</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>179</v>
-      </c>
-      <c r="D21" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>192</v>
-      </c>
-      <c r="I21" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>371</v>
-      </c>
-      <c r="N21" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4845,8 +4257,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127F93B4-8009-493E-9536-485386093D61}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1F3A65-B728-4CA8-9C66-934E98DC4CAB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4862,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4963,100 +4375,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2591</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
-        <v>4167</v>
+        <v>23871</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>290</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>6212</v>
+        <v>27039</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>293</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="N5" s="7">
-        <v>10378</v>
+        <v>50910</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,153 +4477,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>4167</v>
+        <v>25841</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I6" s="7">
-        <v>6212</v>
+        <v>27660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N6" s="7">
-        <v>10378</v>
+        <v>53501</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>614</v>
+        <v>3483</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>1887</v>
+        <v>4959</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>2501</v>
+        <v>8442</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7">
-        <v>20990</v>
+        <v>40759</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I8" s="7">
-        <v>17436</v>
+        <v>58850</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="N8" s="7">
-        <v>38426</v>
+        <v>99609</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,153 +4632,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>21604</v>
+        <v>44242</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>19323</v>
+        <v>63809</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="N9" s="7">
-        <v>40927</v>
+        <v>108051</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>4789</v>
+        <v>7874</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>3437</v>
+        <v>3495</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>8226</v>
+        <v>11370</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D11" s="7">
-        <v>56056</v>
+        <v>69197</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I11" s="7">
-        <v>36736</v>
+        <v>53428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="N11" s="7">
-        <v>92792</v>
+        <v>122624</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,153 +4787,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>60845</v>
+        <v>77071</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>40173</v>
+        <v>56923</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>101018</v>
+        <v>133994</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3235</v>
+        <v>1686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>352</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>6454</v>
+        <v>723</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>9689</v>
+        <v>2409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>50259</v>
+        <v>28875</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I14" s="7">
-        <v>51441</v>
+        <v>33086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="N14" s="7">
-        <v>101699</v>
+        <v>61961</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,153 +4942,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>53494</v>
+        <v>30561</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>57895</v>
+        <v>33809</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>111388</v>
+        <v>64370</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>750</v>
+        <v>15013</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>347</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>1720</v>
+        <v>9798</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="N16" s="7">
-        <v>2470</v>
+        <v>24812</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="D17" s="7">
-        <v>31677</v>
+        <v>162702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>356</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="I17" s="7">
-        <v>29089</v>
+        <v>172403</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
-        <v>89</v>
+        <v>442</v>
       </c>
       <c r="N17" s="7">
-        <v>60767</v>
+        <v>335104</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,217 +5097,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D18" s="7">
-        <v>32427</v>
+        <v>177715</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>30809</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>93</v>
+        <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>63237</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>13</v>
-      </c>
-      <c r="D19" s="7">
-        <v>9388</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="H19" s="7">
-        <v>21</v>
-      </c>
-      <c r="I19" s="7">
-        <v>13498</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="M19" s="7">
-        <v>34</v>
-      </c>
-      <c r="N19" s="7">
-        <v>22886</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>237</v>
-      </c>
-      <c r="D20" s="7">
-        <v>163149</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H20" s="7">
-        <v>205</v>
-      </c>
-      <c r="I20" s="7">
-        <v>140914</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="M20" s="7">
-        <v>442</v>
-      </c>
-      <c r="N20" s="7">
-        <v>304062</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>250</v>
-      </c>
-      <c r="D21" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>226</v>
-      </c>
-      <c r="I21" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>476</v>
-      </c>
-      <c r="N21" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
